--- a/1DB_1221694_1221121_1220754 _1210787_1210998_1211146_G09.xlsx
+++ b/1DB_1221694_1221121_1220754 _1210787_1210998_1211146_G09.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinto\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\joao\src\Github\ISEP-MATCP-2022-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03548AC-2A51-45F8-B062-8346CD62DDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3078AEC0-ECC8-409D-8CB8-5122BBE1E748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="1950" windowWidth="24195" windowHeight="11385" activeTab="1" xr2:uid="{F80C88BB-E4DE-D54A-AE33-392A853E4BDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" activeTab="1" xr2:uid="{F80C88BB-E4DE-D54A-AE33-392A853E4BDD}"/>
   </bookViews>
   <sheets>
     <sheet name="1DXXX_dados" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="30">
   <si>
     <t>Número</t>
   </si>
@@ -98,6 +98,27 @@
   <si>
     <t>G09</t>
   </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>Dados do enunciado</t>
+  </si>
+  <si>
+    <t>Total de visitas</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Vendido</t>
+  </si>
+  <si>
+    <t>Não vendido</t>
+  </si>
+  <si>
+    <t>comercializados (%)</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,16 +179,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -286,11 +333,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -358,12 +437,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -525,12 +769,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D3AD503-C849-094D-AE19-CCC9B0D89FA2}" name="Tabela1" displayName="Tabela1" ref="E3:H203" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D3AD503-C849-094D-AE19-CCC9B0D89FA2}" name="Tabela1" displayName="Tabela1" ref="E3:H203" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A483604F-1A48-8348-B3D8-A47621CD5096}" name="Visita Id" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{09DCB880-2531-C945-B8B7-E22F9D9F0DCF}" name="Data de visita" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{12BF6D2A-FEA3-FB47-9558-D1BB592122D5}" name="Tipo de apartamento" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{42D712E5-C426-1140-8F37-1DCBF5F59732}" name="Vendido S/N" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A483604F-1A48-8348-B3D8-A47621CD5096}" name="Visita Id" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{09DCB880-2531-C945-B8B7-E22F9D9F0DCF}" name="Data de visita" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{12BF6D2A-FEA3-FB47-9558-D1BB592122D5}" name="Tipo de apartamento" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{42D712E5-C426-1140-8F37-1DCBF5F59732}" name="Vendido S/N" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{99FD7DBF-0D0C-4DB3-A66D-F87E5C40A10B}" name="Tabela14" displayName="Tabela14" ref="B5:E205" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4739CFB5-679E-4449-8E35-FA748954D70A}" name="Visita Id" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{68D52DC2-0096-4D09-8C02-C2C4B4CAA344}" name="Data de visita" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{601757F4-1B87-48FA-9B75-D3EA91B9710D}" name="Tipo de apartamento" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F91CC086-AB4C-4892-81AC-60E683816947}" name="Vendido S/N" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -835,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724EE4AD-DC68-3C43-A58C-F99F52D328A9}">
   <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:H203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -868,7 +1124,7 @@
       <c r="A3" s="6">
         <v>1221694</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -891,7 +1147,7 @@
       <c r="A4" s="6">
         <v>1221121</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -914,7 +1170,7 @@
       <c r="A5" s="6">
         <v>1220754</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -938,7 +1194,7 @@
       <c r="A6" s="6">
         <v>1210787</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -961,7 +1217,7 @@
       <c r="A7" s="6">
         <v>1210998</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -984,7 +1240,7 @@
       <c r="A8" s="6">
         <v>1211146</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3747,17 +4003,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A990CD-725A-0E49-A453-E6B6F139DF19}">
-  <dimension ref="A1:Y203"/>
+  <dimension ref="A1:Y205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="5" width="11" style="6"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11" style="6"/>
+    <col min="7" max="7" width="10.75" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
     <col min="12" max="12" width="10.875"/>
     <col min="13" max="13" width="15.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.875"/>
@@ -3767,7 +4027,10 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
     </row>
-    <row r="2" spans="1:25" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="B2" s="8"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -3777,8 +4040,10 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:25" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="9"/>
+    <row r="3" spans="1:25" s="7" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -3789,621 +4054,2962 @@
       <c r="N3" s="12"/>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="G4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
+    <row r="5" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="32" t="s">
+        <v>25</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22">
+        <v>44576</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="6">
+        <f>COUNTA(E6:E205)</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
+      <c r="B7" s="21">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22">
+        <v>44576</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
+      <c r="B8" s="21">
+        <v>3</v>
+      </c>
+      <c r="C8" s="22">
+        <v>44576</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="B9" s="21">
+        <v>4</v>
+      </c>
+      <c r="C9" s="22">
+        <v>44577</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="B10" s="21">
+        <v>5</v>
+      </c>
+      <c r="C10" s="22">
+        <v>44577</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="31">
+        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T0")</f>
+        <v>21</v>
+      </c>
+      <c r="J10" s="31">
+        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T1")</f>
+        <v>20</v>
+      </c>
+      <c r="K10" s="31">
+        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T2")</f>
+        <v>14</v>
+      </c>
+      <c r="L10" s="31">
+        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T3")</f>
+        <v>13</v>
+      </c>
+      <c r="M10" s="31">
+        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T4")</f>
+        <v>13</v>
+      </c>
+      <c r="N10" s="31">
+        <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T5")</f>
+        <v>17</v>
+      </c>
+      <c r="O10" s="31">
+        <f>SUM(I10:N10)</f>
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
+      <c r="B11" s="21">
+        <v>6</v>
+      </c>
+      <c r="C11" s="22">
+        <v>44578</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="31">
+        <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T0")</f>
+        <v>22</v>
+      </c>
+      <c r="J11" s="31">
+        <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T1")</f>
+        <v>18</v>
+      </c>
+      <c r="K11" s="31">
+        <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T2")</f>
+        <v>15</v>
+      </c>
+      <c r="L11" s="31">
+        <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T3")</f>
+        <v>15</v>
+      </c>
+      <c r="M11" s="31">
+        <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T4")</f>
+        <v>17</v>
+      </c>
+      <c r="N11" s="31">
+        <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T5")</f>
+        <v>15</v>
+      </c>
+      <c r="O11" s="31">
+        <f>SUM(I11:N11)</f>
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
+      <c r="B12" s="21">
+        <v>7</v>
+      </c>
+      <c r="C12" s="22">
+        <v>44578</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="X12" s="14"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
+      <c r="B13" s="21">
+        <v>8</v>
+      </c>
+      <c r="C13" s="22">
+        <v>44578</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="33">
+        <f>(I10/$H6)</f>
+        <v>0.105</v>
+      </c>
+      <c r="J13" s="33">
+        <f t="shared" ref="J13:O13" si="0">(J10/$H6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="33">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L13" s="33">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M13" s="33">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N13" s="33">
+        <f t="shared" si="0"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="O13" s="33">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
+      <c r="B14" s="21">
+        <v>9</v>
+      </c>
+      <c r="C14" s="22">
+        <v>44579</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
+      <c r="B15" s="21">
+        <v>10</v>
+      </c>
+      <c r="C15" s="22">
+        <v>44579</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
+      <c r="B16" s="21">
+        <v>11</v>
+      </c>
+      <c r="C16" s="22">
+        <v>44579</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
+      <c r="B17" s="21">
+        <v>12</v>
+      </c>
+      <c r="C17" s="22">
+        <v>44580</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
+      <c r="B18" s="21">
+        <v>13</v>
+      </c>
+      <c r="C18" s="22">
+        <v>44580</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
+      <c r="B19" s="21">
+        <v>14</v>
+      </c>
+      <c r="C19" s="22">
+        <v>44581</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
+      <c r="B20" s="21">
+        <v>15</v>
+      </c>
+      <c r="C20" s="22">
+        <v>44581</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
+      <c r="B21" s="21">
+        <v>16</v>
+      </c>
+      <c r="C21" s="22">
+        <v>44581</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
+      <c r="B22" s="21">
+        <v>17</v>
+      </c>
+      <c r="C22" s="22">
+        <v>44582</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
+      <c r="B23" s="21">
+        <v>18</v>
+      </c>
+      <c r="C23" s="22">
+        <v>44583</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
+      <c r="B24" s="21">
+        <v>19</v>
+      </c>
+      <c r="C24" s="22">
+        <v>44583</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
+      <c r="B25" s="21">
+        <v>20</v>
+      </c>
+      <c r="C25" s="22">
+        <v>44584</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
+      <c r="B26" s="21">
+        <v>21</v>
+      </c>
+      <c r="C26" s="22">
+        <v>44584</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
+      <c r="B27" s="21">
+        <v>22</v>
+      </c>
+      <c r="C27" s="22">
+        <v>44584</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
+      <c r="B28" s="21">
+        <v>23</v>
+      </c>
+      <c r="C28" s="22">
+        <v>44584</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
+      <c r="B29" s="21">
+        <v>24</v>
+      </c>
+      <c r="C29" s="22">
+        <v>44585</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
+      <c r="B30" s="21">
+        <v>25</v>
+      </c>
+      <c r="C30" s="22">
+        <v>44585</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
+      <c r="B31" s="21">
+        <v>26</v>
+      </c>
+      <c r="C31" s="22">
+        <v>44585</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
+      <c r="B32" s="21">
+        <v>27</v>
+      </c>
+      <c r="C32" s="22">
+        <v>44586</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
+      <c r="B33" s="21">
+        <v>28</v>
+      </c>
+      <c r="C33" s="22">
+        <v>44586</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
+      <c r="B34" s="21">
+        <v>29</v>
+      </c>
+      <c r="C34" s="22">
+        <v>44587</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
+      <c r="B35" s="21">
+        <v>30</v>
+      </c>
+      <c r="C35" s="22">
+        <v>44587</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
+      <c r="B36" s="21">
+        <v>31</v>
+      </c>
+      <c r="C36" s="22">
+        <v>44587</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="13"/>
+      <c r="B37" s="21">
+        <v>32</v>
+      </c>
+      <c r="C37" s="22">
+        <v>44587</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
+      <c r="B38" s="21">
+        <v>33</v>
+      </c>
+      <c r="C38" s="22">
+        <v>44588</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
+      <c r="B39" s="21">
+        <v>34</v>
+      </c>
+      <c r="C39" s="22">
+        <v>44588</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
+      <c r="B40" s="21">
+        <v>35</v>
+      </c>
+      <c r="C40" s="22">
+        <v>44589</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N40" s="16"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="13"/>
+      <c r="B41" s="21">
+        <v>36</v>
+      </c>
+      <c r="C41" s="22">
+        <v>44589</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N41" s="16"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="13"/>
+      <c r="B42" s="21">
+        <v>37</v>
+      </c>
+      <c r="C42" s="22">
+        <v>44590</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="13"/>
+      <c r="B43" s="21">
+        <v>38</v>
+      </c>
+      <c r="C43" s="22">
+        <v>44590</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="13"/>
+      <c r="B44" s="21">
+        <v>39</v>
+      </c>
+      <c r="C44" s="22">
+        <v>44591</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
+      <c r="B45" s="21">
+        <v>40</v>
+      </c>
+      <c r="C45" s="22">
+        <v>44592</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="13"/>
+      <c r="B46" s="21">
+        <v>41</v>
+      </c>
+      <c r="C46" s="22">
+        <v>44592</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="13"/>
+      <c r="B47" s="21">
+        <v>42</v>
+      </c>
+      <c r="C47" s="22">
+        <v>44593</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="13"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="13"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="13"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="13"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="13"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="13"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="13"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="13"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="13"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="13"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="13"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="13"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="13"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="13"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="13"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="13"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="13"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="13"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="13"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="13"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="13"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="13"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="13"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="13"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="13"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="13"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="13"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="13"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="13"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="13"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="13"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="13"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="13"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="13"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="13"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="13"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="13"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="13"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="13"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="13"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="13"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="13"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="13"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="13"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="13"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="13"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="13"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="13"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="13"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="13"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="13"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="13"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="13"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="13"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="13"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="13"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="13"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="13"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="13"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="13"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="13"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="13"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="13"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="13"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="13"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="13"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="13"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="13"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="13"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="13"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="13"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="13"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="13"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="13"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="13"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="13"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="13"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="13"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="13"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="13"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="13"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="13"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="13"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="13"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="13"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="13"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="13"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="13"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="13"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="13"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="13"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="13"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="13"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="13"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="13"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="13"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="13"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="13"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="13"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="13"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="13"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="13"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="13"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="13"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="13"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="13"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="13"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="13"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="13"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="13"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="13"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="13"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="13"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="13"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="13"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="13"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="13"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="13"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="13"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="13"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="13"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="13"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="13"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="13"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="13"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="13"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="13"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="13"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="13"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="13"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="13"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="13"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="13"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="13"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="13"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="13"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="13"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="13"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="13"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="13"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="13"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="13"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="13"/>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="13"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="13"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="13"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="13"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="13"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="13"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="13"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="13"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="13"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="13"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="13"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="13"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="13"/>
+      <c r="B48" s="21">
+        <v>43</v>
+      </c>
+      <c r="C48" s="22">
+        <v>44593</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="21">
+        <v>44</v>
+      </c>
+      <c r="C49" s="22">
+        <v>44593</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="21">
+        <v>45</v>
+      </c>
+      <c r="C50" s="22">
+        <v>44593</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="21">
+        <v>46</v>
+      </c>
+      <c r="C51" s="22">
+        <v>44593</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="21">
+        <v>47</v>
+      </c>
+      <c r="C52" s="22">
+        <v>44593</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="21">
+        <v>48</v>
+      </c>
+      <c r="C53" s="22">
+        <v>44594</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="21">
+        <v>49</v>
+      </c>
+      <c r="C54" s="22">
+        <v>44594</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="21">
+        <v>50</v>
+      </c>
+      <c r="C55" s="22">
+        <v>44594</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="21">
+        <v>51</v>
+      </c>
+      <c r="C56" s="22">
+        <v>44594</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="21">
+        <v>52</v>
+      </c>
+      <c r="C57" s="22">
+        <v>44594</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="21">
+        <v>53</v>
+      </c>
+      <c r="C58" s="22">
+        <v>44595</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="21">
+        <v>54</v>
+      </c>
+      <c r="C59" s="22">
+        <v>44595</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="21">
+        <v>55</v>
+      </c>
+      <c r="C60" s="22">
+        <v>44595</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="21">
+        <v>56</v>
+      </c>
+      <c r="C61" s="22">
+        <v>44595</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="21">
+        <v>57</v>
+      </c>
+      <c r="C62" s="22">
+        <v>44595</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="21">
+        <v>58</v>
+      </c>
+      <c r="C63" s="22">
+        <v>44596</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="21">
+        <v>59</v>
+      </c>
+      <c r="C64" s="22">
+        <v>44596</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="21">
+        <v>60</v>
+      </c>
+      <c r="C65" s="22">
+        <v>44597</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="21">
+        <v>61</v>
+      </c>
+      <c r="C66" s="22">
+        <v>44597</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="21">
+        <v>62</v>
+      </c>
+      <c r="C67" s="22">
+        <v>44597</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="21">
+        <v>63</v>
+      </c>
+      <c r="C68" s="22">
+        <v>44597</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="21">
+        <v>64</v>
+      </c>
+      <c r="C69" s="22">
+        <v>44597</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="21">
+        <v>65</v>
+      </c>
+      <c r="C70" s="22">
+        <v>44598</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="21">
+        <v>66</v>
+      </c>
+      <c r="C71" s="22">
+        <v>44598</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="21">
+        <v>67</v>
+      </c>
+      <c r="C72" s="22">
+        <v>44598</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="21">
+        <v>68</v>
+      </c>
+      <c r="C73" s="22">
+        <v>44599</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="21">
+        <v>69</v>
+      </c>
+      <c r="C74" s="22">
+        <v>44599</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="21">
+        <v>70</v>
+      </c>
+      <c r="C75" s="22">
+        <v>44599</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="21">
+        <v>71</v>
+      </c>
+      <c r="C76" s="22">
+        <v>44599</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="21">
+        <v>72</v>
+      </c>
+      <c r="C77" s="22">
+        <v>44599</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="21">
+        <v>73</v>
+      </c>
+      <c r="C78" s="22">
+        <v>44599</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="21">
+        <v>74</v>
+      </c>
+      <c r="C79" s="22">
+        <v>44599</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="21">
+        <v>75</v>
+      </c>
+      <c r="C80" s="22">
+        <v>44600</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="21">
+        <v>76</v>
+      </c>
+      <c r="C81" s="22">
+        <v>44600</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="21">
+        <v>77</v>
+      </c>
+      <c r="C82" s="22">
+        <v>44600</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="21">
+        <v>78</v>
+      </c>
+      <c r="C83" s="22">
+        <v>44600</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="21">
+        <v>79</v>
+      </c>
+      <c r="C84" s="22">
+        <v>44601</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="21">
+        <v>80</v>
+      </c>
+      <c r="C85" s="22">
+        <v>44601</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="21">
+        <v>81</v>
+      </c>
+      <c r="C86" s="22">
+        <v>44602</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="21">
+        <v>82</v>
+      </c>
+      <c r="C87" s="22">
+        <v>44602</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="21">
+        <v>83</v>
+      </c>
+      <c r="C88" s="22">
+        <v>44602</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="21">
+        <v>84</v>
+      </c>
+      <c r="C89" s="22">
+        <v>44602</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="21">
+        <v>85</v>
+      </c>
+      <c r="C90" s="22">
+        <v>44603</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="21">
+        <v>86</v>
+      </c>
+      <c r="C91" s="22">
+        <v>44603</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="21">
+        <v>87</v>
+      </c>
+      <c r="C92" s="22">
+        <v>44604</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="21">
+        <v>88</v>
+      </c>
+      <c r="C93" s="22">
+        <v>44604</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="21">
+        <v>89</v>
+      </c>
+      <c r="C94" s="22">
+        <v>44604</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="21">
+        <v>90</v>
+      </c>
+      <c r="C95" s="22">
+        <v>44604</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="21">
+        <v>91</v>
+      </c>
+      <c r="C96" s="22">
+        <v>44604</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="21">
+        <v>92</v>
+      </c>
+      <c r="C97" s="22">
+        <v>44604</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="21">
+        <v>93</v>
+      </c>
+      <c r="C98" s="22">
+        <v>44605</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="21">
+        <v>94</v>
+      </c>
+      <c r="C99" s="22">
+        <v>44605</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="21">
+        <v>95</v>
+      </c>
+      <c r="C100" s="22">
+        <v>44606</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="21">
+        <v>96</v>
+      </c>
+      <c r="C101" s="22">
+        <v>44606</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="21">
+        <v>97</v>
+      </c>
+      <c r="C102" s="22">
+        <v>44607</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="21">
+        <v>98</v>
+      </c>
+      <c r="C103" s="22">
+        <v>44607</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="21">
+        <v>99</v>
+      </c>
+      <c r="C104" s="22">
+        <v>44608</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="21">
+        <v>100</v>
+      </c>
+      <c r="C105" s="22">
+        <v>44608</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="21">
+        <v>101</v>
+      </c>
+      <c r="C106" s="22">
+        <v>44608</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="21">
+        <v>102</v>
+      </c>
+      <c r="C107" s="22">
+        <v>44608</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="21">
+        <v>103</v>
+      </c>
+      <c r="C108" s="22">
+        <v>44608</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="21">
+        <v>104</v>
+      </c>
+      <c r="C109" s="22">
+        <v>44608</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="21">
+        <v>105</v>
+      </c>
+      <c r="C110" s="22">
+        <v>44609</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="21">
+        <v>106</v>
+      </c>
+      <c r="C111" s="22">
+        <v>44610</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="21">
+        <v>107</v>
+      </c>
+      <c r="C112" s="22">
+        <v>44610</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="21">
+        <v>108</v>
+      </c>
+      <c r="C113" s="22">
+        <v>44611</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="21">
+        <v>109</v>
+      </c>
+      <c r="C114" s="22">
+        <v>44611</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="21">
+        <v>110</v>
+      </c>
+      <c r="C115" s="22">
+        <v>44611</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="21">
+        <v>111</v>
+      </c>
+      <c r="C116" s="22">
+        <v>44611</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="21">
+        <v>112</v>
+      </c>
+      <c r="C117" s="22">
+        <v>44611</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="21">
+        <v>113</v>
+      </c>
+      <c r="C118" s="22">
+        <v>44611</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="21">
+        <v>114</v>
+      </c>
+      <c r="C119" s="22">
+        <v>44611</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="21">
+        <v>115</v>
+      </c>
+      <c r="C120" s="22">
+        <v>44611</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="21">
+        <v>116</v>
+      </c>
+      <c r="C121" s="22">
+        <v>44612</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="21">
+        <v>117</v>
+      </c>
+      <c r="C122" s="22">
+        <v>44612</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="21">
+        <v>118</v>
+      </c>
+      <c r="C123" s="22">
+        <v>44612</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="21">
+        <v>119</v>
+      </c>
+      <c r="C124" s="22">
+        <v>44612</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="21">
+        <v>120</v>
+      </c>
+      <c r="C125" s="22">
+        <v>44612</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="21">
+        <v>121</v>
+      </c>
+      <c r="C126" s="22">
+        <v>44614</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="21">
+        <v>122</v>
+      </c>
+      <c r="C127" s="22">
+        <v>44614</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="21">
+        <v>123</v>
+      </c>
+      <c r="C128" s="22">
+        <v>44614</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="21">
+        <v>124</v>
+      </c>
+      <c r="C129" s="22">
+        <v>44614</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="21">
+        <v>125</v>
+      </c>
+      <c r="C130" s="22">
+        <v>44615</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="21">
+        <v>126</v>
+      </c>
+      <c r="C131" s="22">
+        <v>44615</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="21">
+        <v>127</v>
+      </c>
+      <c r="C132" s="22">
+        <v>44615</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="21">
+        <v>128</v>
+      </c>
+      <c r="C133" s="22">
+        <v>44616</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="21">
+        <v>129</v>
+      </c>
+      <c r="C134" s="22">
+        <v>44616</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="21">
+        <v>130</v>
+      </c>
+      <c r="C135" s="22">
+        <v>44617</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="21">
+        <v>131</v>
+      </c>
+      <c r="C136" s="22">
+        <v>44618</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="21">
+        <v>132</v>
+      </c>
+      <c r="C137" s="22">
+        <v>44618</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="21">
+        <v>133</v>
+      </c>
+      <c r="C138" s="22">
+        <v>44619</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="21">
+        <v>134</v>
+      </c>
+      <c r="C139" s="22">
+        <v>44619</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="21">
+        <v>135</v>
+      </c>
+      <c r="C140" s="22">
+        <v>44619</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="21">
+        <v>136</v>
+      </c>
+      <c r="C141" s="22">
+        <v>44619</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="21">
+        <v>137</v>
+      </c>
+      <c r="C142" s="22">
+        <v>44620</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="21">
+        <v>138</v>
+      </c>
+      <c r="C143" s="22">
+        <v>44620</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="21">
+        <v>139</v>
+      </c>
+      <c r="C144" s="22">
+        <v>44620</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="21">
+        <v>140</v>
+      </c>
+      <c r="C145" s="22">
+        <v>44621</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="21">
+        <v>141</v>
+      </c>
+      <c r="C146" s="22">
+        <v>44621</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="21">
+        <v>142</v>
+      </c>
+      <c r="C147" s="22">
+        <v>44621</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="21">
+        <v>143</v>
+      </c>
+      <c r="C148" s="22">
+        <v>44622</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="21">
+        <v>144</v>
+      </c>
+      <c r="C149" s="22">
+        <v>44622</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="21">
+        <v>145</v>
+      </c>
+      <c r="C150" s="22">
+        <v>44622</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="21">
+        <v>146</v>
+      </c>
+      <c r="C151" s="22">
+        <v>44622</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="21">
+        <v>147</v>
+      </c>
+      <c r="C152" s="22">
+        <v>44623</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="21">
+        <v>148</v>
+      </c>
+      <c r="C153" s="22">
+        <v>44623</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="21">
+        <v>149</v>
+      </c>
+      <c r="C154" s="22">
+        <v>44623</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" s="21">
+        <v>150</v>
+      </c>
+      <c r="C155" s="22">
+        <v>44623</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" s="21">
+        <v>151</v>
+      </c>
+      <c r="C156" s="22">
+        <v>44624</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="21">
+        <v>152</v>
+      </c>
+      <c r="C157" s="22">
+        <v>44624</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="21">
+        <v>153</v>
+      </c>
+      <c r="C158" s="22">
+        <v>44624</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="21">
+        <v>154</v>
+      </c>
+      <c r="C159" s="22">
+        <v>44624</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="21">
+        <v>155</v>
+      </c>
+      <c r="C160" s="22">
+        <v>44624</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="21">
+        <v>156</v>
+      </c>
+      <c r="C161" s="22">
+        <v>44624</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="21">
+        <v>157</v>
+      </c>
+      <c r="C162" s="22">
+        <v>44625</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="21">
+        <v>158</v>
+      </c>
+      <c r="C163" s="22">
+        <v>44625</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="21">
+        <v>159</v>
+      </c>
+      <c r="C164" s="22">
+        <v>44625</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="21">
+        <v>160</v>
+      </c>
+      <c r="C165" s="22">
+        <v>44625</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="21">
+        <v>161</v>
+      </c>
+      <c r="C166" s="22">
+        <v>44625</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="21">
+        <v>162</v>
+      </c>
+      <c r="C167" s="22">
+        <v>44626</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="21">
+        <v>163</v>
+      </c>
+      <c r="C168" s="22">
+        <v>44626</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="21">
+        <v>164</v>
+      </c>
+      <c r="C169" s="22">
+        <v>44627</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="21">
+        <v>165</v>
+      </c>
+      <c r="C170" s="22">
+        <v>44627</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="21">
+        <v>166</v>
+      </c>
+      <c r="C171" s="22">
+        <v>44627</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="21">
+        <v>167</v>
+      </c>
+      <c r="C172" s="22">
+        <v>44627</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="21">
+        <v>168</v>
+      </c>
+      <c r="C173" s="22">
+        <v>44627</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="21">
+        <v>169</v>
+      </c>
+      <c r="C174" s="22">
+        <v>44628</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="21">
+        <v>170</v>
+      </c>
+      <c r="C175" s="22">
+        <v>44628</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="21">
+        <v>171</v>
+      </c>
+      <c r="C176" s="22">
+        <v>44628</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="21">
+        <v>172</v>
+      </c>
+      <c r="C177" s="22">
+        <v>44628</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="21">
+        <v>173</v>
+      </c>
+      <c r="C178" s="22">
+        <v>44629</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="21">
+        <v>174</v>
+      </c>
+      <c r="C179" s="22">
+        <v>44629</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="21">
+        <v>175</v>
+      </c>
+      <c r="C180" s="22">
+        <v>44629</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="21">
+        <v>176</v>
+      </c>
+      <c r="C181" s="22">
+        <v>44629</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="21">
+        <v>177</v>
+      </c>
+      <c r="C182" s="22">
+        <v>44630</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="21">
+        <v>178</v>
+      </c>
+      <c r="C183" s="22">
+        <v>44630</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="21">
+        <v>179</v>
+      </c>
+      <c r="C184" s="22">
+        <v>44630</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="21">
+        <v>180</v>
+      </c>
+      <c r="C185" s="22">
+        <v>44630</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="21">
+        <v>181</v>
+      </c>
+      <c r="C186" s="22">
+        <v>44630</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="21">
+        <v>182</v>
+      </c>
+      <c r="C187" s="22">
+        <v>44630</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="21">
+        <v>183</v>
+      </c>
+      <c r="C188" s="22">
+        <v>44631</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="21">
+        <v>184</v>
+      </c>
+      <c r="C189" s="22">
+        <v>44632</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="21">
+        <v>185</v>
+      </c>
+      <c r="C190" s="22">
+        <v>44632</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="21">
+        <v>186</v>
+      </c>
+      <c r="C191" s="22">
+        <v>44632</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="21">
+        <v>187</v>
+      </c>
+      <c r="C192" s="22">
+        <v>44632</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B193" s="21">
+        <v>188</v>
+      </c>
+      <c r="C193" s="22">
+        <v>44632</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B194" s="21">
+        <v>189</v>
+      </c>
+      <c r="C194" s="22">
+        <v>44633</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195" s="21">
+        <v>190</v>
+      </c>
+      <c r="C195" s="22">
+        <v>44633</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="21">
+        <v>191</v>
+      </c>
+      <c r="C196" s="22">
+        <v>44633</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="21">
+        <v>192</v>
+      </c>
+      <c r="C197" s="22">
+        <v>44633</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B198" s="21">
+        <v>193</v>
+      </c>
+      <c r="C198" s="22">
+        <v>44633</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="21">
+        <v>194</v>
+      </c>
+      <c r="C199" s="22">
+        <v>44634</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B200" s="21">
+        <v>195</v>
+      </c>
+      <c r="C200" s="22">
+        <v>44634</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201" s="21">
+        <v>196</v>
+      </c>
+      <c r="C201" s="22">
+        <v>44634</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B202" s="21">
+        <v>197</v>
+      </c>
+      <c r="C202" s="22">
+        <v>44635</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="21">
+        <v>198</v>
+      </c>
+      <c r="C203" s="22">
+        <v>44635</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="21">
+        <v>199</v>
+      </c>
+      <c r="C204" s="22">
+        <v>44635</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B205" s="23">
+        <v>200</v>
+      </c>
+      <c r="C205" s="24">
+        <v>44635</v>
+      </c>
+      <c r="D205" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" s="26" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/1DB_1221694_1221121_1220754 _1210787_1210998_1211146_G09.xlsx
+++ b/1DB_1221694_1221121_1220754 _1210787_1210998_1211146_G09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\joao\src\Github\ISEP-MATCP-2022-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3078AEC0-ECC8-409D-8CB8-5122BBE1E748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E755A4D4-D118-412C-A42E-795E2C1AE185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" activeTab="1" xr2:uid="{F80C88BB-E4DE-D54A-AE33-392A853E4BDD}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="34">
   <si>
     <t>Número</t>
   </si>
@@ -119,6 +119,18 @@
   <si>
     <t>comercializados (%)</t>
   </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>X = Supondo que uma visita resultou em venda</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>F(X)</t>
+  </si>
 </sst>
 </file>
 
@@ -127,7 +139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,6 +202,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -369,7 +389,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -440,9 +460,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,13 +471,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -755,6 +778,153 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -769,24 +939,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D3AD503-C849-094D-AE19-CCC9B0D89FA2}" name="Tabela1" displayName="Tabela1" ref="E3:H203" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D3AD503-C849-094D-AE19-CCC9B0D89FA2}" name="Tabela1" displayName="Tabela1" ref="E3:H203" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A483604F-1A48-8348-B3D8-A47621CD5096}" name="Visita Id" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{09DCB880-2531-C945-B8B7-E22F9D9F0DCF}" name="Data de visita" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{12BF6D2A-FEA3-FB47-9558-D1BB592122D5}" name="Tipo de apartamento" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{42D712E5-C426-1140-8F37-1DCBF5F59732}" name="Vendido S/N" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{A483604F-1A48-8348-B3D8-A47621CD5096}" name="Visita Id" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{09DCB880-2531-C945-B8B7-E22F9D9F0DCF}" name="Data de visita" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{12BF6D2A-FEA3-FB47-9558-D1BB592122D5}" name="Tipo de apartamento" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{42D712E5-C426-1140-8F37-1DCBF5F59732}" name="Vendido S/N" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{99FD7DBF-0D0C-4DB3-A66D-F87E5C40A10B}" name="Tabela14" displayName="Tabela14" ref="B5:E205" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{99FD7DBF-0D0C-4DB3-A66D-F87E5C40A10B}" name="Tabela14" displayName="Tabela14" ref="B5:E205" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4739CFB5-679E-4449-8E35-FA748954D70A}" name="Visita Id" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{68D52DC2-0096-4D09-8C02-C2C4B4CAA344}" name="Data de visita" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{601757F4-1B87-48FA-9B75-D3EA91B9710D}" name="Tipo de apartamento" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{F91CC086-AB4C-4892-81AC-60E683816947}" name="Vendido S/N" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4739CFB5-679E-4449-8E35-FA748954D70A}" name="Visita Id" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{68D52DC2-0096-4D09-8C02-C2C4B4CAA344}" name="Data de visita" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{601757F4-1B87-48FA-9B75-D3EA91B9710D}" name="Tipo de apartamento" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F91CC086-AB4C-4892-81AC-60E683816947}" name="Vendido S/N" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0831DD52-7B95-4EAC-B65B-C512A269BD81}" name="Tabela143" displayName="Tabela143" ref="B5:E205" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{507C1A74-29A2-4120-AF79-77DC0E2EE6E5}" name="Visita Id" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{4DDC0184-54E0-4ACE-9DDC-A78B2ADF1ED4}" name="Data de visita" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{23A35D42-27AA-43EF-8957-0C404FC3FFAB}" name="Tipo de apartamento" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{08CA733E-C40F-46DD-A84C-F865293AE7A7}" name="Vendido S/N" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4005,8 +4187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A990CD-725A-0E49-A453-E6B6F139DF19}">
   <dimension ref="A1:Y205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4016,7 +4198,7 @@
     <col min="4" max="4" width="19.75" style="6" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="6" customWidth="1"/>
     <col min="8" max="8" width="18.25" customWidth="1"/>
     <col min="12" max="12" width="10.875"/>
     <col min="13" max="13" width="15.375" bestFit="1" customWidth="1"/>
@@ -4028,9 +4210,6 @@
       <c r="A1" s="5"/>
     </row>
     <row r="2" spans="1:25" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="B2" s="8"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -4040,7 +4219,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:25" s="7" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="7" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="27" t="s">
         <v>24</v>
       </c>
@@ -4048,7 +4227,9 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="33" t="s">
+        <v>23</v>
+      </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="N3" s="12"/>
@@ -4072,8 +4253,7 @@
       <c r="E5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="31" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="2"/>
@@ -4124,7 +4304,6 @@
       <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="21">
@@ -4139,26 +4318,26 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="29" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="28" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4175,34 +4354,34 @@
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="30">
         <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T0")</f>
         <v>21</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="30">
         <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T1")</f>
         <v>20</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="30">
         <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T2")</f>
         <v>14</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="30">
         <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T3")</f>
         <v>13</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="30">
         <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T4")</f>
         <v>13</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="30">
         <f>COUNTIFS($E6:$E205,"Sim",$D6:$D205,"T5")</f>
         <v>17</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="30">
         <f>SUM(I10:N10)</f>
         <v>98</v>
       </c>
@@ -4220,34 +4399,34 @@
       <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T0")</f>
         <v>22</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T1")</f>
         <v>18</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="30">
         <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T2")</f>
         <v>15</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="30">
         <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T3")</f>
         <v>15</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T4")</f>
         <v>17</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <f>COUNTIFS($E6:$E206,"Não",$D6:$D206,"T5")</f>
         <v>15</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="30">
         <f>SUM(I11:N11)</f>
         <v>102</v>
       </c>
@@ -4280,34 +4459,34 @@
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="32">
         <f>(I10/$H6)</f>
         <v>0.105</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="32">
         <f t="shared" ref="J13:O13" si="0">(J10/$H6)</f>
         <v>0.1</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="32">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="32">
         <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="32">
         <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="32">
         <f t="shared" si="0"/>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="32">
         <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
@@ -4340,7 +4519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="21">
         <v>11</v>
       </c>
@@ -4353,8 +4532,14 @@
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="21">
         <v>12</v>
       </c>
@@ -4368,7 +4553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="21">
         <v>13</v>
       </c>
@@ -4381,9 +4566,32 @@
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="21">
         <v>14</v>
       </c>
@@ -4396,8 +4604,39 @@
       <c r="E19" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="34">
+        <f>ROUND(I10/$O10,4)</f>
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="J19" s="34">
+        <f t="shared" ref="J19:N19" si="1">ROUND(J10/$O10,4)</f>
+        <v>0.2041</v>
+      </c>
+      <c r="K19" s="34">
+        <f t="shared" si="1"/>
+        <v>0.1429</v>
+      </c>
+      <c r="L19" s="34">
+        <f t="shared" si="1"/>
+        <v>0.13270000000000001</v>
+      </c>
+      <c r="M19" s="34">
+        <f t="shared" si="1"/>
+        <v>0.13270000000000001</v>
+      </c>
+      <c r="N19" s="34">
+        <f t="shared" si="1"/>
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="O19" s="1">
+        <f>SUM(I19:N19)</f>
+        <v>1.0002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="21">
         <v>15</v>
       </c>
@@ -4411,7 +4650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="21">
         <v>16</v>
       </c>
@@ -4425,7 +4664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="21">
         <v>17</v>
       </c>
@@ -4439,7 +4678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="21">
         <v>18</v>
       </c>
@@ -4453,7 +4692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="21">
         <v>19</v>
       </c>
@@ -4467,7 +4706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="21">
         <v>20</v>
       </c>
@@ -4481,7 +4720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="21">
         <v>21</v>
       </c>
@@ -4495,7 +4734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="21">
         <v>22</v>
       </c>
@@ -4509,7 +4748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
         <v>23</v>
       </c>
@@ -4523,7 +4762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
         <v>24</v>
       </c>
@@ -4537,7 +4776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="21">
         <v>25</v>
       </c>
@@ -4551,7 +4790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="21">
         <v>26</v>
       </c>
@@ -4565,7 +4804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="21">
         <v>27</v>
       </c>
@@ -7015,15 +7254,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978AFDEC-252D-9F4B-B755-504BCF5644C6}">
-  <dimension ref="A1:Y203"/>
+  <dimension ref="A1:Y205"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="5" width="11" style="6"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="6" customWidth="1"/>
     <col min="7" max="7" width="11" style="6"/>
     <col min="13" max="13" width="15.375" bestFit="1" customWidth="1"/>
@@ -7033,7 +7275,7 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
     </row>
-    <row r="2" spans="1:25" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -7043,8 +7285,10 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:25" s="7" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="9"/>
+    <row r="3" spans="1:25" s="7" customFormat="1" ht="33.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -7055,621 +7299,2841 @@
       <c r="N3" s="12"/>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="G4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
+      <c r="B5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22">
+        <v>44576</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
+      <c r="B7" s="21">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22">
+        <v>44576</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
+      <c r="B8" s="21">
+        <v>3</v>
+      </c>
+      <c r="C8" s="22">
+        <v>44576</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
+      <c r="B9" s="21">
+        <v>4</v>
+      </c>
+      <c r="C9" s="22">
+        <v>44577</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
+      <c r="B10" s="21">
+        <v>5</v>
+      </c>
+      <c r="C10" s="22">
+        <v>44577</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
+      <c r="B11" s="21">
+        <v>6</v>
+      </c>
+      <c r="C11" s="22">
+        <v>44578</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
+      <c r="B12" s="21">
+        <v>7</v>
+      </c>
+      <c r="C12" s="22">
+        <v>44578</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="X12" s="14"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
+      <c r="B13" s="21">
+        <v>8</v>
+      </c>
+      <c r="C13" s="22">
+        <v>44578</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
+      <c r="B14" s="21">
+        <v>9</v>
+      </c>
+      <c r="C14" s="22">
+        <v>44579</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
+      <c r="B15" s="21">
+        <v>10</v>
+      </c>
+      <c r="C15" s="22">
+        <v>44579</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
+      <c r="B16" s="21">
+        <v>11</v>
+      </c>
+      <c r="C16" s="22">
+        <v>44579</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
+      <c r="B17" s="21">
+        <v>12</v>
+      </c>
+      <c r="C17" s="22">
+        <v>44580</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
+      <c r="B18" s="21">
+        <v>13</v>
+      </c>
+      <c r="C18" s="22">
+        <v>44580</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
+      <c r="B19" s="21">
+        <v>14</v>
+      </c>
+      <c r="C19" s="22">
+        <v>44581</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
+      <c r="B20" s="21">
+        <v>15</v>
+      </c>
+      <c r="C20" s="22">
+        <v>44581</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
+      <c r="B21" s="21">
+        <v>16</v>
+      </c>
+      <c r="C21" s="22">
+        <v>44581</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
+      <c r="B22" s="21">
+        <v>17</v>
+      </c>
+      <c r="C22" s="22">
+        <v>44582</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
+      <c r="B23" s="21">
+        <v>18</v>
+      </c>
+      <c r="C23" s="22">
+        <v>44583</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
+      <c r="B24" s="21">
+        <v>19</v>
+      </c>
+      <c r="C24" s="22">
+        <v>44583</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
+      <c r="B25" s="21">
+        <v>20</v>
+      </c>
+      <c r="C25" s="22">
+        <v>44584</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
+      <c r="B26" s="21">
+        <v>21</v>
+      </c>
+      <c r="C26" s="22">
+        <v>44584</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
+      <c r="B27" s="21">
+        <v>22</v>
+      </c>
+      <c r="C27" s="22">
+        <v>44584</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
+      <c r="B28" s="21">
+        <v>23</v>
+      </c>
+      <c r="C28" s="22">
+        <v>44584</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
+      <c r="B29" s="21">
+        <v>24</v>
+      </c>
+      <c r="C29" s="22">
+        <v>44585</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
+      <c r="B30" s="21">
+        <v>25</v>
+      </c>
+      <c r="C30" s="22">
+        <v>44585</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
+      <c r="B31" s="21">
+        <v>26</v>
+      </c>
+      <c r="C31" s="22">
+        <v>44585</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
+      <c r="B32" s="21">
+        <v>27</v>
+      </c>
+      <c r="C32" s="22">
+        <v>44586</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
+      <c r="B33" s="21">
+        <v>28</v>
+      </c>
+      <c r="C33" s="22">
+        <v>44586</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
+      <c r="B34" s="21">
+        <v>29</v>
+      </c>
+      <c r="C34" s="22">
+        <v>44587</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
+      <c r="B35" s="21">
+        <v>30</v>
+      </c>
+      <c r="C35" s="22">
+        <v>44587</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
+      <c r="B36" s="21">
+        <v>31</v>
+      </c>
+      <c r="C36" s="22">
+        <v>44587</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="13"/>
+      <c r="B37" s="21">
+        <v>32</v>
+      </c>
+      <c r="C37" s="22">
+        <v>44587</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
+      <c r="B38" s="21">
+        <v>33</v>
+      </c>
+      <c r="C38" s="22">
+        <v>44588</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
+      <c r="B39" s="21">
+        <v>34</v>
+      </c>
+      <c r="C39" s="22">
+        <v>44588</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
+      <c r="B40" s="21">
+        <v>35</v>
+      </c>
+      <c r="C40" s="22">
+        <v>44589</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N40" s="16"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="13"/>
+      <c r="B41" s="21">
+        <v>36</v>
+      </c>
+      <c r="C41" s="22">
+        <v>44589</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N41" s="16"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="13"/>
+      <c r="B42" s="21">
+        <v>37</v>
+      </c>
+      <c r="C42" s="22">
+        <v>44590</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="13"/>
+      <c r="B43" s="21">
+        <v>38</v>
+      </c>
+      <c r="C43" s="22">
+        <v>44590</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="13"/>
+      <c r="B44" s="21">
+        <v>39</v>
+      </c>
+      <c r="C44" s="22">
+        <v>44591</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
+      <c r="B45" s="21">
+        <v>40</v>
+      </c>
+      <c r="C45" s="22">
+        <v>44592</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="13"/>
+      <c r="B46" s="21">
+        <v>41</v>
+      </c>
+      <c r="C46" s="22">
+        <v>44592</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="13"/>
+      <c r="B47" s="21">
+        <v>42</v>
+      </c>
+      <c r="C47" s="22">
+        <v>44593</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="13"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="13"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="13"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="13"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="13"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="13"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="13"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="13"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="13"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="13"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="13"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="13"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="13"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="13"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="13"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="13"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="13"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="13"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="13"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="13"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="13"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="13"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="13"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="13"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="13"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="13"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="13"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="13"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="13"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="13"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="13"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="13"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="13"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="13"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="13"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="13"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="13"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="13"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="13"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="13"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="13"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="13"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="13"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="13"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="13"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="13"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="13"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="13"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="13"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="13"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="13"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="13"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="13"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="13"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="13"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="13"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="13"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="13"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="13"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="13"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="13"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="13"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="13"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="13"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="13"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="13"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="13"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="13"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="13"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="13"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="13"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="13"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="13"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="13"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="13"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="13"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="13"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="13"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="13"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="13"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="13"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="13"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="13"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="13"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="13"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="13"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="13"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="13"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="13"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="13"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="13"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="13"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="13"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="13"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="13"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="13"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="13"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="13"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="13"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="13"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="13"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="13"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="13"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="13"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="13"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="13"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="13"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="13"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="13"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="13"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="13"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="13"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="13"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="13"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="13"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="13"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="13"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="13"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="13"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="13"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="13"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="13"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="13"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="13"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="13"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="13"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="13"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="13"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="13"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="13"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="13"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="13"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="13"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="13"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="13"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="13"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="13"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="13"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="13"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="13"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="13"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="13"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="13"/>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="13"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="13"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="13"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="13"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="13"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="13"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="13"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="13"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="13"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="13"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="13"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="13"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="13"/>
+      <c r="B48" s="21">
+        <v>43</v>
+      </c>
+      <c r="C48" s="22">
+        <v>44593</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="21">
+        <v>44</v>
+      </c>
+      <c r="C49" s="22">
+        <v>44593</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="21">
+        <v>45</v>
+      </c>
+      <c r="C50" s="22">
+        <v>44593</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="21">
+        <v>46</v>
+      </c>
+      <c r="C51" s="22">
+        <v>44593</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="21">
+        <v>47</v>
+      </c>
+      <c r="C52" s="22">
+        <v>44593</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="21">
+        <v>48</v>
+      </c>
+      <c r="C53" s="22">
+        <v>44594</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="21">
+        <v>49</v>
+      </c>
+      <c r="C54" s="22">
+        <v>44594</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="21">
+        <v>50</v>
+      </c>
+      <c r="C55" s="22">
+        <v>44594</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="21">
+        <v>51</v>
+      </c>
+      <c r="C56" s="22">
+        <v>44594</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="21">
+        <v>52</v>
+      </c>
+      <c r="C57" s="22">
+        <v>44594</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="21">
+        <v>53</v>
+      </c>
+      <c r="C58" s="22">
+        <v>44595</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="21">
+        <v>54</v>
+      </c>
+      <c r="C59" s="22">
+        <v>44595</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="21">
+        <v>55</v>
+      </c>
+      <c r="C60" s="22">
+        <v>44595</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="21">
+        <v>56</v>
+      </c>
+      <c r="C61" s="22">
+        <v>44595</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="21">
+        <v>57</v>
+      </c>
+      <c r="C62" s="22">
+        <v>44595</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="21">
+        <v>58</v>
+      </c>
+      <c r="C63" s="22">
+        <v>44596</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="21">
+        <v>59</v>
+      </c>
+      <c r="C64" s="22">
+        <v>44596</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="21">
+        <v>60</v>
+      </c>
+      <c r="C65" s="22">
+        <v>44597</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="21">
+        <v>61</v>
+      </c>
+      <c r="C66" s="22">
+        <v>44597</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="21">
+        <v>62</v>
+      </c>
+      <c r="C67" s="22">
+        <v>44597</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="21">
+        <v>63</v>
+      </c>
+      <c r="C68" s="22">
+        <v>44597</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="21">
+        <v>64</v>
+      </c>
+      <c r="C69" s="22">
+        <v>44597</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="21">
+        <v>65</v>
+      </c>
+      <c r="C70" s="22">
+        <v>44598</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="21">
+        <v>66</v>
+      </c>
+      <c r="C71" s="22">
+        <v>44598</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="21">
+        <v>67</v>
+      </c>
+      <c r="C72" s="22">
+        <v>44598</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="21">
+        <v>68</v>
+      </c>
+      <c r="C73" s="22">
+        <v>44599</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="21">
+        <v>69</v>
+      </c>
+      <c r="C74" s="22">
+        <v>44599</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="21">
+        <v>70</v>
+      </c>
+      <c r="C75" s="22">
+        <v>44599</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="21">
+        <v>71</v>
+      </c>
+      <c r="C76" s="22">
+        <v>44599</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="21">
+        <v>72</v>
+      </c>
+      <c r="C77" s="22">
+        <v>44599</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="21">
+        <v>73</v>
+      </c>
+      <c r="C78" s="22">
+        <v>44599</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="21">
+        <v>74</v>
+      </c>
+      <c r="C79" s="22">
+        <v>44599</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="21">
+        <v>75</v>
+      </c>
+      <c r="C80" s="22">
+        <v>44600</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="21">
+        <v>76</v>
+      </c>
+      <c r="C81" s="22">
+        <v>44600</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="21">
+        <v>77</v>
+      </c>
+      <c r="C82" s="22">
+        <v>44600</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="21">
+        <v>78</v>
+      </c>
+      <c r="C83" s="22">
+        <v>44600</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="21">
+        <v>79</v>
+      </c>
+      <c r="C84" s="22">
+        <v>44601</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="21">
+        <v>80</v>
+      </c>
+      <c r="C85" s="22">
+        <v>44601</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="21">
+        <v>81</v>
+      </c>
+      <c r="C86" s="22">
+        <v>44602</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="21">
+        <v>82</v>
+      </c>
+      <c r="C87" s="22">
+        <v>44602</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="21">
+        <v>83</v>
+      </c>
+      <c r="C88" s="22">
+        <v>44602</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="21">
+        <v>84</v>
+      </c>
+      <c r="C89" s="22">
+        <v>44602</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="21">
+        <v>85</v>
+      </c>
+      <c r="C90" s="22">
+        <v>44603</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="21">
+        <v>86</v>
+      </c>
+      <c r="C91" s="22">
+        <v>44603</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="21">
+        <v>87</v>
+      </c>
+      <c r="C92" s="22">
+        <v>44604</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="21">
+        <v>88</v>
+      </c>
+      <c r="C93" s="22">
+        <v>44604</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="21">
+        <v>89</v>
+      </c>
+      <c r="C94" s="22">
+        <v>44604</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="21">
+        <v>90</v>
+      </c>
+      <c r="C95" s="22">
+        <v>44604</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="21">
+        <v>91</v>
+      </c>
+      <c r="C96" s="22">
+        <v>44604</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="21">
+        <v>92</v>
+      </c>
+      <c r="C97" s="22">
+        <v>44604</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="21">
+        <v>93</v>
+      </c>
+      <c r="C98" s="22">
+        <v>44605</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="21">
+        <v>94</v>
+      </c>
+      <c r="C99" s="22">
+        <v>44605</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="21">
+        <v>95</v>
+      </c>
+      <c r="C100" s="22">
+        <v>44606</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="21">
+        <v>96</v>
+      </c>
+      <c r="C101" s="22">
+        <v>44606</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="21">
+        <v>97</v>
+      </c>
+      <c r="C102" s="22">
+        <v>44607</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="21">
+        <v>98</v>
+      </c>
+      <c r="C103" s="22">
+        <v>44607</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="21">
+        <v>99</v>
+      </c>
+      <c r="C104" s="22">
+        <v>44608</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="21">
+        <v>100</v>
+      </c>
+      <c r="C105" s="22">
+        <v>44608</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="21">
+        <v>101</v>
+      </c>
+      <c r="C106" s="22">
+        <v>44608</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="21">
+        <v>102</v>
+      </c>
+      <c r="C107" s="22">
+        <v>44608</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="21">
+        <v>103</v>
+      </c>
+      <c r="C108" s="22">
+        <v>44608</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="21">
+        <v>104</v>
+      </c>
+      <c r="C109" s="22">
+        <v>44608</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="21">
+        <v>105</v>
+      </c>
+      <c r="C110" s="22">
+        <v>44609</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="21">
+        <v>106</v>
+      </c>
+      <c r="C111" s="22">
+        <v>44610</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="21">
+        <v>107</v>
+      </c>
+      <c r="C112" s="22">
+        <v>44610</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="21">
+        <v>108</v>
+      </c>
+      <c r="C113" s="22">
+        <v>44611</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="21">
+        <v>109</v>
+      </c>
+      <c r="C114" s="22">
+        <v>44611</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="21">
+        <v>110</v>
+      </c>
+      <c r="C115" s="22">
+        <v>44611</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="21">
+        <v>111</v>
+      </c>
+      <c r="C116" s="22">
+        <v>44611</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="21">
+        <v>112</v>
+      </c>
+      <c r="C117" s="22">
+        <v>44611</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="21">
+        <v>113</v>
+      </c>
+      <c r="C118" s="22">
+        <v>44611</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="21">
+        <v>114</v>
+      </c>
+      <c r="C119" s="22">
+        <v>44611</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="21">
+        <v>115</v>
+      </c>
+      <c r="C120" s="22">
+        <v>44611</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="21">
+        <v>116</v>
+      </c>
+      <c r="C121" s="22">
+        <v>44612</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="21">
+        <v>117</v>
+      </c>
+      <c r="C122" s="22">
+        <v>44612</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="21">
+        <v>118</v>
+      </c>
+      <c r="C123" s="22">
+        <v>44612</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="21">
+        <v>119</v>
+      </c>
+      <c r="C124" s="22">
+        <v>44612</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="21">
+        <v>120</v>
+      </c>
+      <c r="C125" s="22">
+        <v>44612</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="21">
+        <v>121</v>
+      </c>
+      <c r="C126" s="22">
+        <v>44614</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="21">
+        <v>122</v>
+      </c>
+      <c r="C127" s="22">
+        <v>44614</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="21">
+        <v>123</v>
+      </c>
+      <c r="C128" s="22">
+        <v>44614</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="21">
+        <v>124</v>
+      </c>
+      <c r="C129" s="22">
+        <v>44614</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="21">
+        <v>125</v>
+      </c>
+      <c r="C130" s="22">
+        <v>44615</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="21">
+        <v>126</v>
+      </c>
+      <c r="C131" s="22">
+        <v>44615</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="21">
+        <v>127</v>
+      </c>
+      <c r="C132" s="22">
+        <v>44615</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="21">
+        <v>128</v>
+      </c>
+      <c r="C133" s="22">
+        <v>44616</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="21">
+        <v>129</v>
+      </c>
+      <c r="C134" s="22">
+        <v>44616</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="21">
+        <v>130</v>
+      </c>
+      <c r="C135" s="22">
+        <v>44617</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="21">
+        <v>131</v>
+      </c>
+      <c r="C136" s="22">
+        <v>44618</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="21">
+        <v>132</v>
+      </c>
+      <c r="C137" s="22">
+        <v>44618</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="21">
+        <v>133</v>
+      </c>
+      <c r="C138" s="22">
+        <v>44619</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="21">
+        <v>134</v>
+      </c>
+      <c r="C139" s="22">
+        <v>44619</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="21">
+        <v>135</v>
+      </c>
+      <c r="C140" s="22">
+        <v>44619</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="21">
+        <v>136</v>
+      </c>
+      <c r="C141" s="22">
+        <v>44619</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="21">
+        <v>137</v>
+      </c>
+      <c r="C142" s="22">
+        <v>44620</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="21">
+        <v>138</v>
+      </c>
+      <c r="C143" s="22">
+        <v>44620</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="21">
+        <v>139</v>
+      </c>
+      <c r="C144" s="22">
+        <v>44620</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="21">
+        <v>140</v>
+      </c>
+      <c r="C145" s="22">
+        <v>44621</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="21">
+        <v>141</v>
+      </c>
+      <c r="C146" s="22">
+        <v>44621</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="21">
+        <v>142</v>
+      </c>
+      <c r="C147" s="22">
+        <v>44621</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="21">
+        <v>143</v>
+      </c>
+      <c r="C148" s="22">
+        <v>44622</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="21">
+        <v>144</v>
+      </c>
+      <c r="C149" s="22">
+        <v>44622</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="21">
+        <v>145</v>
+      </c>
+      <c r="C150" s="22">
+        <v>44622</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="21">
+        <v>146</v>
+      </c>
+      <c r="C151" s="22">
+        <v>44622</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="21">
+        <v>147</v>
+      </c>
+      <c r="C152" s="22">
+        <v>44623</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="21">
+        <v>148</v>
+      </c>
+      <c r="C153" s="22">
+        <v>44623</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="21">
+        <v>149</v>
+      </c>
+      <c r="C154" s="22">
+        <v>44623</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" s="21">
+        <v>150</v>
+      </c>
+      <c r="C155" s="22">
+        <v>44623</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" s="21">
+        <v>151</v>
+      </c>
+      <c r="C156" s="22">
+        <v>44624</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="21">
+        <v>152</v>
+      </c>
+      <c r="C157" s="22">
+        <v>44624</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="21">
+        <v>153</v>
+      </c>
+      <c r="C158" s="22">
+        <v>44624</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="21">
+        <v>154</v>
+      </c>
+      <c r="C159" s="22">
+        <v>44624</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="21">
+        <v>155</v>
+      </c>
+      <c r="C160" s="22">
+        <v>44624</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="21">
+        <v>156</v>
+      </c>
+      <c r="C161" s="22">
+        <v>44624</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="21">
+        <v>157</v>
+      </c>
+      <c r="C162" s="22">
+        <v>44625</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="21">
+        <v>158</v>
+      </c>
+      <c r="C163" s="22">
+        <v>44625</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="21">
+        <v>159</v>
+      </c>
+      <c r="C164" s="22">
+        <v>44625</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="21">
+        <v>160</v>
+      </c>
+      <c r="C165" s="22">
+        <v>44625</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="21">
+        <v>161</v>
+      </c>
+      <c r="C166" s="22">
+        <v>44625</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="21">
+        <v>162</v>
+      </c>
+      <c r="C167" s="22">
+        <v>44626</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="21">
+        <v>163</v>
+      </c>
+      <c r="C168" s="22">
+        <v>44626</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="21">
+        <v>164</v>
+      </c>
+      <c r="C169" s="22">
+        <v>44627</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="21">
+        <v>165</v>
+      </c>
+      <c r="C170" s="22">
+        <v>44627</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="21">
+        <v>166</v>
+      </c>
+      <c r="C171" s="22">
+        <v>44627</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="21">
+        <v>167</v>
+      </c>
+      <c r="C172" s="22">
+        <v>44627</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="21">
+        <v>168</v>
+      </c>
+      <c r="C173" s="22">
+        <v>44627</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="21">
+        <v>169</v>
+      </c>
+      <c r="C174" s="22">
+        <v>44628</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="21">
+        <v>170</v>
+      </c>
+      <c r="C175" s="22">
+        <v>44628</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="21">
+        <v>171</v>
+      </c>
+      <c r="C176" s="22">
+        <v>44628</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="21">
+        <v>172</v>
+      </c>
+      <c r="C177" s="22">
+        <v>44628</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="21">
+        <v>173</v>
+      </c>
+      <c r="C178" s="22">
+        <v>44629</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="21">
+        <v>174</v>
+      </c>
+      <c r="C179" s="22">
+        <v>44629</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="21">
+        <v>175</v>
+      </c>
+      <c r="C180" s="22">
+        <v>44629</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="21">
+        <v>176</v>
+      </c>
+      <c r="C181" s="22">
+        <v>44629</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="21">
+        <v>177</v>
+      </c>
+      <c r="C182" s="22">
+        <v>44630</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="21">
+        <v>178</v>
+      </c>
+      <c r="C183" s="22">
+        <v>44630</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="21">
+        <v>179</v>
+      </c>
+      <c r="C184" s="22">
+        <v>44630</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="21">
+        <v>180</v>
+      </c>
+      <c r="C185" s="22">
+        <v>44630</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="21">
+        <v>181</v>
+      </c>
+      <c r="C186" s="22">
+        <v>44630</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="21">
+        <v>182</v>
+      </c>
+      <c r="C187" s="22">
+        <v>44630</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="21">
+        <v>183</v>
+      </c>
+      <c r="C188" s="22">
+        <v>44631</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="21">
+        <v>184</v>
+      </c>
+      <c r="C189" s="22">
+        <v>44632</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="21">
+        <v>185</v>
+      </c>
+      <c r="C190" s="22">
+        <v>44632</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="21">
+        <v>186</v>
+      </c>
+      <c r="C191" s="22">
+        <v>44632</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="21">
+        <v>187</v>
+      </c>
+      <c r="C192" s="22">
+        <v>44632</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B193" s="21">
+        <v>188</v>
+      </c>
+      <c r="C193" s="22">
+        <v>44632</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B194" s="21">
+        <v>189</v>
+      </c>
+      <c r="C194" s="22">
+        <v>44633</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195" s="21">
+        <v>190</v>
+      </c>
+      <c r="C195" s="22">
+        <v>44633</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="21">
+        <v>191</v>
+      </c>
+      <c r="C196" s="22">
+        <v>44633</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="21">
+        <v>192</v>
+      </c>
+      <c r="C197" s="22">
+        <v>44633</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B198" s="21">
+        <v>193</v>
+      </c>
+      <c r="C198" s="22">
+        <v>44633</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="21">
+        <v>194</v>
+      </c>
+      <c r="C199" s="22">
+        <v>44634</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B200" s="21">
+        <v>195</v>
+      </c>
+      <c r="C200" s="22">
+        <v>44634</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201" s="21">
+        <v>196</v>
+      </c>
+      <c r="C201" s="22">
+        <v>44634</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B202" s="21">
+        <v>197</v>
+      </c>
+      <c r="C202" s="22">
+        <v>44635</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="21">
+        <v>198</v>
+      </c>
+      <c r="C203" s="22">
+        <v>44635</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="21">
+        <v>199</v>
+      </c>
+      <c r="C204" s="22">
+        <v>44635</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B205" s="23">
+        <v>200</v>
+      </c>
+      <c r="C205" s="24">
+        <v>44635</v>
+      </c>
+      <c r="D205" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" s="26" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
